--- a/WebAppRaspisanie/PrimerRaspisania.xlsx
+++ b/WebAppRaspisanie/PrimerRaspisania.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GroupRegistrations2020_06_18_15!$A$1:$U$924</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2015,7 +2015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2025,15 +2025,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U924"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U259" sqref="U259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -34879,7 +34880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>113</v>
       </c>
@@ -34944,7 +34945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>113</v>
       </c>
@@ -35594,7 +35595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>113</v>
       </c>
@@ -38324,7 +38325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>113</v>
       </c>
@@ -48854,7 +48855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>113</v>
       </c>
@@ -49309,7 +49310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>113</v>
       </c>
@@ -49374,7 +49375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="729" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>113</v>
       </c>
@@ -55484,7 +55485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="823" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A823" s="2" t="s">
         <v>113</v>
       </c>
@@ -61529,7 +61530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="916" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A916" s="2" t="s">
         <v>113</v>
       </c>
@@ -62115,7 +62116,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U924"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
